--- a/SectionB/Data_Driven/SubmitCertificate/SecB_submitcert_data.xlsx
+++ b/SectionB/Data_Driven/SubmitCertificate/SecB_submitcert_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -347,10 +347,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -358,25 +358,20 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SelectCampus</t>
+          <t>listening</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Confirm</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
@@ -385,21 +380,20 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n"/>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Invalid</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>LackQuanity</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -408,23 +402,20 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>UnableBtn</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -433,23 +424,20 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>UnableBtn</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -458,21 +446,20 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Invalid</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>UnableBtn</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -481,21 +468,20 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>UnableBtn</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -504,23 +490,20 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>1</v>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -529,23 +512,20 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>2</v>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>UnableBtn</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -554,23 +534,20 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>2</v>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>UnableBtn</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -579,23 +556,20 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>0</v>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Invalid</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>InvalidQuantity</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -604,21 +578,20 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n"/>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>LackLocation</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -627,23 +600,20 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0</v>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>LackLocation</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -652,23 +622,20 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>2</v>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Invalid</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>LackLocation</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -677,50 +644,20 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>LackQuanity</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>UnableBtn</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>

--- a/SectionB/Data_Driven/SubmitCertificate/SecB_submitcert_data.xlsx
+++ b/SectionB/Data_Driven/SubmitCertificate/SecB_submitcert_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="10020" windowHeight="17020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -349,11 +349,11 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
     </row>
